--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H2">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N2">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q2">
-        <v>0.2196390485852222</v>
+        <v>0.3817850731200001</v>
       </c>
       <c r="R2">
-        <v>1.976751437267</v>
+        <v>3.43606565808</v>
       </c>
       <c r="S2">
-        <v>3.126500746505783E-05</v>
+        <v>5.680524692257499E-05</v>
       </c>
       <c r="T2">
-        <v>3.126500746505783E-05</v>
+        <v>5.680524692257499E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H3">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I3">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J3">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N3">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O3">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P3">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q3">
-        <v>88.87947000815169</v>
+        <v>111.4501055481</v>
       </c>
       <c r="R3">
-        <v>799.9152300733651</v>
+        <v>1003.0509499329</v>
       </c>
       <c r="S3">
-        <v>0.01265174526658467</v>
+        <v>0.01658249945046166</v>
       </c>
       <c r="T3">
-        <v>0.01265174526658467</v>
+        <v>0.01658249945046166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H4">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I4">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J4">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N4">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q4">
-        <v>0.09617936037111112</v>
+        <v>0.07530585534000002</v>
       </c>
       <c r="R4">
-        <v>0.8656142433400001</v>
+        <v>0.6777526980600002</v>
       </c>
       <c r="S4">
-        <v>1.369086434928947E-05</v>
+        <v>1.120464892025743E-05</v>
       </c>
       <c r="T4">
-        <v>1.369086434928947E-05</v>
+        <v>1.120464892025743E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H5">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I5">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J5">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N5">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O5">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P5">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q5">
-        <v>112.6143514658896</v>
+        <v>61.66141461759</v>
       </c>
       <c r="R5">
-        <v>1013.529163193006</v>
+        <v>554.95273155831</v>
       </c>
       <c r="S5">
-        <v>0.01603033960460607</v>
+        <v>0.009174512388142876</v>
       </c>
       <c r="T5">
-        <v>0.01603033960460606</v>
+        <v>0.009174512388142878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>170.579399</v>
       </c>
       <c r="I6">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J6">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N6">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q6">
-        <v>6.865460697685444</v>
+        <v>13.82011546778134</v>
       </c>
       <c r="R6">
-        <v>61.789146279169</v>
+        <v>124.381039210032</v>
       </c>
       <c r="S6">
-        <v>0.0009772792285653645</v>
+        <v>0.002056274922511346</v>
       </c>
       <c r="T6">
-        <v>0.0009772792285653645</v>
+        <v>0.002056274922511346</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>170.579399</v>
       </c>
       <c r="I7">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J7">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N7">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O7">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P7">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q7">
-        <v>2778.187722550229</v>
+        <v>4034.346641643158</v>
       </c>
       <c r="R7">
-        <v>25003.68950295206</v>
+        <v>36309.11977478841</v>
       </c>
       <c r="S7">
-        <v>0.3954672925618794</v>
+        <v>0.600264581527442</v>
       </c>
       <c r="T7">
-        <v>0.3954672925618793</v>
+        <v>0.600264581527442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>170.579399</v>
       </c>
       <c r="I8">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J8">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N8">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q8">
-        <v>3.006367141042223</v>
+        <v>2.725972515619334</v>
       </c>
       <c r="R8">
-        <v>27.05730426938</v>
+        <v>24.533752640574</v>
       </c>
       <c r="S8">
-        <v>0.0004279479979213213</v>
+        <v>0.0004055934942360565</v>
       </c>
       <c r="T8">
-        <v>0.0004279479979213213</v>
+        <v>0.0004055934942360565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>170.579399</v>
       </c>
       <c r="I9">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J9">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N9">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O9">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P9">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q9">
-        <v>3520.09084434005</v>
+        <v>2232.061780094756</v>
       </c>
       <c r="R9">
-        <v>31680.81759906045</v>
+        <v>20088.5560208528</v>
       </c>
       <c r="S9">
-        <v>0.5010751377538892</v>
+        <v>0.3321052327388195</v>
       </c>
       <c r="T9">
-        <v>0.5010751377538891</v>
+        <v>0.3321052327388196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H10">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I10">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J10">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N10">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q10">
-        <v>0.194578901808</v>
+        <v>0.2254043820746667</v>
       </c>
       <c r="R10">
-        <v>1.751210116272</v>
+        <v>2.028639438672</v>
       </c>
       <c r="S10">
-        <v>2.769776529608946E-05</v>
+        <v>3.353759086635994E-05</v>
       </c>
       <c r="T10">
-        <v>2.769776529608946E-05</v>
+        <v>3.353759086635994E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H11">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I11">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J11">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N11">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O11">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P11">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q11">
-        <v>78.73859306376001</v>
+        <v>65.79969711212335</v>
       </c>
       <c r="R11">
-        <v>708.6473375738401</v>
+        <v>592.1972740091101</v>
       </c>
       <c r="S11">
-        <v>0.01120821964848121</v>
+        <v>0.009790241434373683</v>
       </c>
       <c r="T11">
-        <v>0.01120821964848121</v>
+        <v>0.009790241434373683</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H12">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I12">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J12">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N12">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q12">
-        <v>0.08520558816</v>
+        <v>0.04446027617266668</v>
       </c>
       <c r="R12">
-        <v>0.7668502934400001</v>
+        <v>0.4001424855540001</v>
       </c>
       <c r="S12">
-        <v>1.212877840733043E-05</v>
+        <v>6.615179963938469E-06</v>
       </c>
       <c r="T12">
-        <v>1.212877840733043E-05</v>
+        <v>6.615179963938469E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H13">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I13">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J13">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N13">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O13">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P13">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q13">
-        <v>99.76539680534401</v>
+        <v>36.40465287483656</v>
       </c>
       <c r="R13">
-        <v>897.888571248096</v>
+        <v>327.641875873529</v>
       </c>
       <c r="S13">
-        <v>0.01420132665828439</v>
+        <v>0.00541659546505038</v>
       </c>
       <c r="T13">
-        <v>0.01420132665828439</v>
+        <v>0.005416595465050381</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H14">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I14">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J14">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N14">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O14">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P14">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q14">
-        <v>0.1505030362068889</v>
+        <v>0.189828680448</v>
       </c>
       <c r="R14">
-        <v>1.354527325862</v>
+        <v>1.708458124032</v>
       </c>
       <c r="S14">
-        <v>2.142368845991643E-05</v>
+        <v>2.824433385441945E-05</v>
       </c>
       <c r="T14">
-        <v>2.142368845991643E-05</v>
+        <v>2.824433385441945E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H15">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I15">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J15">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N15">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O15">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P15">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q15">
-        <v>60.90278654387668</v>
+        <v>55.41449355024</v>
       </c>
       <c r="R15">
-        <v>548.1250788948901</v>
+        <v>498.73044195216</v>
       </c>
       <c r="S15">
-        <v>0.008669342214885379</v>
+        <v>0.008245042069052858</v>
       </c>
       <c r="T15">
-        <v>0.008669342214885379</v>
+        <v>0.008245042069052858</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H16">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I16">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J16">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N16">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O16">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P16">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q16">
-        <v>0.06590488280444445</v>
+        <v>0.037443085536</v>
       </c>
       <c r="R16">
-        <v>0.59314394524</v>
+        <v>0.336987769824</v>
       </c>
       <c r="S16">
-        <v>9.381376700260178E-06</v>
+        <v>5.571102353566985E-06</v>
       </c>
       <c r="T16">
-        <v>9.381376700260178E-06</v>
+        <v>5.571102353566985E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H17">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I17">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J17">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N17">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O17">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P17">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q17">
-        <v>77.16661461274623</v>
+        <v>30.65888583793599</v>
       </c>
       <c r="R17">
-        <v>694.4995315147161</v>
+        <v>275.929972541424</v>
       </c>
       <c r="S17">
-        <v>0.01098445288969021</v>
+        <v>0.004561691126796851</v>
       </c>
       <c r="T17">
-        <v>0.0109844528896902</v>
+        <v>0.004561691126796852</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H18">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I18">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J18">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N18">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O18">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P18">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q18">
-        <v>0.2155431416766666</v>
+        <v>0.1663998644586667</v>
       </c>
       <c r="R18">
-        <v>1.93988827509</v>
+        <v>1.497598780128</v>
       </c>
       <c r="S18">
-        <v>3.068196651265412E-05</v>
+        <v>2.475839432697402E-05</v>
       </c>
       <c r="T18">
-        <v>3.068196651265412E-05</v>
+        <v>2.475839432697402E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H19">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I19">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J19">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N19">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O19">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P19">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q19">
-        <v>87.22201411595</v>
+        <v>48.57518997679334</v>
       </c>
       <c r="R19">
-        <v>784.9981270435501</v>
+        <v>437.1767097911401</v>
       </c>
       <c r="S19">
-        <v>0.01241581103186419</v>
+        <v>0.007227432016640008</v>
       </c>
       <c r="T19">
-        <v>0.01241581103186419</v>
+        <v>0.007227432016640008</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H20">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I20">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J20">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N20">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O20">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P20">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q20">
-        <v>0.09438577353333333</v>
+        <v>0.03282182831066667</v>
       </c>
       <c r="R20">
-        <v>0.8494719618000001</v>
+        <v>0.295396454796</v>
       </c>
       <c r="S20">
-        <v>1.343555225322293E-05</v>
+        <v>4.883512198109852E-06</v>
       </c>
       <c r="T20">
-        <v>1.343555225322294E-05</v>
+        <v>4.883512198109852E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H21">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I21">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J21">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N21">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O21">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P21">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q21">
-        <v>110.5142790828467</v>
+        <v>26.87494026638289</v>
       </c>
       <c r="R21">
-        <v>994.62851174562</v>
+        <v>241.874462397446</v>
       </c>
       <c r="S21">
-        <v>0.01573140014390483</v>
+        <v>0.003998683357066426</v>
       </c>
       <c r="T21">
-        <v>0.01573140014390483</v>
+        <v>0.003998683357066427</v>
       </c>
     </row>
   </sheetData>
